--- a/classfiers/mega/welm/smote/WELM_lin_smote_results.xlsx
+++ b/classfiers/mega/welm/smote/WELM_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9648648648648649</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9668508287292817</v>
+        <v>0.9872611464968153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9641873278236914</v>
+        <v>0.959752321981424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9841269841269842</v>
+        <v>0.968434387866418</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9702702702702702</v>
+        <v>0.9792899408284024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9788359788359788</v>
+        <v>0.9826589595375722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9711286089238844</v>
+        <v>0.9798270893371759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9809406881230086</v>
+        <v>0.9926431949553337</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9486486486486486</v>
+        <v>0.9556213017751479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9717514124293786</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9476584022038568</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9641696671643102</v>
+        <v>0.967508140471272</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9675675675675676</v>
+        <v>0.9704142011834319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9775280898876404</v>
+        <v>0.9625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9685534591194969</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9787862827715356</v>
+        <v>0.9925210674157303</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9648648648648649</v>
+        <v>0.9674556213017751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9672544080604534</v>
+        <v>0.9703504043126685</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9899411764705882</v>
+        <v>0.9877971137521222</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9632432432432433</v>
+        <v>0.9668639053254438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9709932619764559</v>
+        <v>0.9752986804930007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9633790827357105</v>
+        <v>0.96700100277624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9795929597312852</v>
+        <v>0.9817807808921752</v>
       </c>
     </row>
   </sheetData>
